--- a/ql/QL.xlsx
+++ b/ql/QL.xlsx
@@ -559,7 +559,7 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -631,7 +631,7 @@
       </c>
       <c r="D3" s="7">
         <f ca="1">TODAY() +2</f>
-        <v>41135</v>
+        <v>41136</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -646,7 +646,7 @@
       </c>
       <c r="D4" s="7">
         <f ca="1">TODAY() +365</f>
-        <v>41498</v>
+        <v>41499</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
